--- a/TEMP-ITG_AllOrganizations.xlsx
+++ b/TEMP-ITG_AllOrganizations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkolodzy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyle\Documents\Kyle\SPF-Syntax-Checker\SPF-Syntax-Checker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED9AAF7B-B8D6-4D10-A126-A3E383003263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C2F1E1-F871-40EA-A50B-934A3E08FC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMP-ITG_AllOrganizations" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="440">
   <si>
     <t>name</t>
   </si>
@@ -563,9 +563,6 @@
   </si>
   <si>
     <t>Fantasy Alarm &amp; Wager Alarm</t>
-  </si>
-  <si>
-    <t>???</t>
   </si>
   <si>
     <t>Firmspace</t>
@@ -1361,7 +1358,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2208,11 +2205,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="C194" sqref="C194"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" customWidth="1"/>
@@ -2221,7 +2218,7 @@
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2238,7 +2235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2246,7 +2243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2254,7 +2251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2263,7 +2260,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2271,7 +2268,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2279,7 +2276,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2287,7 +2284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -2296,13 +2293,13 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2310,7 +2307,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2318,7 +2315,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2329,7 +2326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2337,7 +2334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -2346,7 +2343,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -2354,7 +2351,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -2363,7 +2360,7 @@
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -2371,7 +2368,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -2380,7 +2377,7 @@
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -2388,7 +2385,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -2397,7 +2394,7 @@
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2411,7 +2408,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -2419,7 +2416,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -2430,7 +2427,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -2438,7 +2435,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
@@ -2447,7 +2444,7 @@
       </c>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -2464,7 +2461,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -2472,7 +2469,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -2480,7 +2477,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -2488,7 +2485,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -2496,14 +2493,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -2511,7 +2508,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -2522,7 +2519,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -2530,7 +2527,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -2538,7 +2535,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -2546,7 +2543,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -2554,7 +2551,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -2562,14 +2559,14 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>83</v>
       </c>
@@ -2578,7 +2575,7 @@
       </c>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -2592,14 +2589,14 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -2607,7 +2604,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -2615,7 +2612,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -2623,7 +2620,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>95</v>
       </c>
@@ -2631,14 +2628,14 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>98</v>
       </c>
@@ -2646,14 +2643,14 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>101</v>
       </c>
@@ -2661,7 +2658,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>103</v>
       </c>
@@ -2669,7 +2666,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>105</v>
       </c>
@@ -2677,7 +2674,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>107</v>
       </c>
@@ -2685,7 +2682,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>109</v>
       </c>
@@ -2696,7 +2693,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>112</v>
       </c>
@@ -2704,7 +2701,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>114</v>
       </c>
@@ -2712,7 +2709,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>116</v>
       </c>
@@ -2720,7 +2717,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>118</v>
       </c>
@@ -2728,14 +2725,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>121</v>
       </c>
@@ -2744,7 +2741,7 @@
       </c>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>122</v>
       </c>
@@ -2752,14 +2749,14 @@
         <v>123</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -2779,7 +2776,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>131</v>
       </c>
@@ -2788,19 +2785,19 @@
       </c>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>134</v>
       </c>
@@ -2808,7 +2805,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>136</v>
       </c>
@@ -2816,7 +2813,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>138</v>
       </c>
@@ -2824,7 +2821,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>140</v>
       </c>
@@ -2833,14 +2830,14 @@
       </c>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>142</v>
       </c>
@@ -2848,7 +2845,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>144</v>
       </c>
@@ -2859,7 +2856,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -2867,7 +2864,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -2875,21 +2872,21 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>153</v>
       </c>
@@ -2897,7 +2894,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>155</v>
       </c>
@@ -2905,7 +2902,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>157</v>
       </c>
@@ -2914,7 +2911,7 @@
       </c>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>158</v>
       </c>
@@ -2922,7 +2919,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>160</v>
       </c>
@@ -2931,7 +2928,7 @@
       </c>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>161</v>
       </c>
@@ -2939,7 +2936,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>163</v>
       </c>
@@ -2947,14 +2944,14 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>166</v>
       </c>
@@ -2962,14 +2959,14 @@
         <v>167</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>169</v>
       </c>
@@ -2977,7 +2974,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>171</v>
       </c>
@@ -2985,7 +2982,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>173</v>
       </c>
@@ -2993,7 +2990,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>175</v>
       </c>
@@ -3002,1197 +2999,1195 @@
       </c>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B92" s="1"/>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
+      <c r="C93" t="s">
         <v>178</v>
       </c>
-      <c r="C93" t="s">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
+      <c r="C94" t="s">
         <v>180</v>
       </c>
-      <c r="C94" t="s">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
+      <c r="C95" t="s">
         <v>182</v>
       </c>
-      <c r="C95" t="s">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>184</v>
+      </c>
+      <c r="C97" t="s">
         <v>185</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>186</v>
       </c>
-      <c r="D97" t="s">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>188</v>
+      </c>
+      <c r="C99" t="s">
         <v>189</v>
       </c>
-      <c r="C99" t="s">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" t="s">
+      <c r="C100" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C100" s="3" t="s">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>194</v>
+      </c>
+      <c r="C103" t="s">
         <v>195</v>
       </c>
-      <c r="C103" t="s">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" t="s">
+      <c r="C104" t="s">
         <v>197</v>
       </c>
-      <c r="C104" t="s">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" t="s">
+      <c r="C105" t="s">
         <v>199</v>
       </c>
-      <c r="C105" t="s">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>201</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C107" s="3" t="s">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>204</v>
+      </c>
+      <c r="C109" t="s">
         <v>205</v>
       </c>
-      <c r="C109" t="s">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" t="s">
+      <c r="C110" t="s">
         <v>207</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>208</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>209</v>
       </c>
-      <c r="E110" t="s">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" t="s">
+      <c r="C111" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C111" s="3" t="s">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" t="s">
+      <c r="C112" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C112" s="3" t="s">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>216</v>
+      </c>
+      <c r="C115" t="s">
         <v>217</v>
       </c>
-      <c r="C115" t="s">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
+      <c r="C116" t="s">
         <v>219</v>
       </c>
-      <c r="C116" t="s">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
+      <c r="C117" t="s">
         <v>221</v>
       </c>
-      <c r="C117" t="s">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
+      <c r="C118" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C118" s="3" t="s">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>228</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C123" s="3" t="s">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" t="s">
+      <c r="C124" t="s">
         <v>231</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>232</v>
       </c>
-      <c r="D124" t="s">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>236</v>
+      </c>
+      <c r="C128" t="s">
         <v>237</v>
       </c>
-      <c r="C128" t="s">
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
+      <c r="C129" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C129" s="3" t="s">
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>240</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>241</v>
+      </c>
+      <c r="C131" t="s">
         <v>242</v>
       </c>
-      <c r="C131" t="s">
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
+      <c r="C132" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C132" s="3" t="s">
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" t="s">
+      <c r="C133" t="s">
         <v>246</v>
       </c>
-      <c r="C133" t="s">
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
+      <c r="C134" t="s">
         <v>248</v>
       </c>
-      <c r="C134" t="s">
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>250</v>
+      </c>
+      <c r="C136" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C136" s="4" t="s">
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" t="s">
+      <c r="C137" t="s">
         <v>253</v>
       </c>
-      <c r="C137" t="s">
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" t="s">
+      <c r="C138" t="s">
         <v>255</v>
       </c>
-      <c r="C138" t="s">
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" t="s">
+      <c r="C139" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C139" s="3" t="s">
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" t="s">
+      <c r="C140" t="s">
         <v>259</v>
       </c>
-      <c r="C140" t="s">
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C141" s="1"/>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>262</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C143" s="3" t="s">
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>267</v>
+      </c>
+      <c r="C147" t="s">
         <v>268</v>
       </c>
-      <c r="C147" t="s">
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" t="s">
+      <c r="C148" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C148" s="3" t="s">
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" t="s">
+      <c r="C149" t="s">
         <v>272</v>
       </c>
-      <c r="C149" t="s">
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
         <v>273</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>274</v>
+      </c>
+      <c r="C151" t="s">
         <v>275</v>
       </c>
-      <c r="C151" t="s">
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>279</v>
+      </c>
+      <c r="C155" t="s">
         <v>280</v>
       </c>
-      <c r="C155" t="s">
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
         <v>281</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>282</v>
+      </c>
+      <c r="C157" t="s">
         <v>283</v>
       </c>
-      <c r="C157" t="s">
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" t="s">
+      <c r="B158" t="s">
         <v>285</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C158" s="1" t="s">
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" t="s">
+      <c r="C159" t="s">
         <v>288</v>
       </c>
-      <c r="C159" t="s">
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" t="s">
+      <c r="C160" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C160" s="3" t="s">
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" t="s">
+      <c r="C161" t="s">
         <v>292</v>
       </c>
-      <c r="C161" t="s">
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
         <v>293</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>296</v>
+      </c>
+      <c r="C165" t="s">
         <v>297</v>
       </c>
-      <c r="C165" t="s">
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" t="s">
+      <c r="C166" t="s">
         <v>299</v>
       </c>
-      <c r="C166" t="s">
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
         <v>300</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>301</v>
+      </c>
+      <c r="C168" t="s">
         <v>302</v>
       </c>
-      <c r="C168" t="s">
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" t="s">
+      <c r="C169" t="s">
         <v>304</v>
       </c>
-      <c r="C169" t="s">
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>306</v>
+      </c>
+      <c r="C171" t="s">
         <v>307</v>
       </c>
-      <c r="C171" t="s">
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="1" t="s">
+      <c r="B172" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="C172" s="1"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>310</v>
       </c>
-      <c r="C172" s="1"/>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" t="s">
+      <c r="C173" t="s">
         <v>311</v>
       </c>
-      <c r="C173" t="s">
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" t="s">
+      <c r="C174" t="s">
         <v>313</v>
       </c>
-      <c r="C174" t="s">
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" t="s">
+      <c r="C175" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C175" s="3" t="s">
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" t="s">
+      <c r="C176" t="s">
         <v>317</v>
       </c>
-      <c r="C176" t="s">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="177" spans="1:5">
-      <c r="A177" t="s">
+      <c r="C177" t="s">
         <v>319</v>
       </c>
-      <c r="C177" t="s">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178" t="s">
+      <c r="C178" t="s">
         <v>321</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
         <v>322</v>
       </c>
-      <c r="D178" t="s">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="179" spans="1:5">
-      <c r="A179" s="1" t="s">
+      <c r="B179" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="C179" s="1"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C179" s="1"/>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="A180" s="5" t="s">
+      <c r="B180" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="C180" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="C180" s="5" t="s">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181" t="s">
+      <c r="C181" t="s">
         <v>329</v>
       </c>
-      <c r="C181" t="s">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182" t="s">
+      <c r="C182" t="s">
         <v>331</v>
       </c>
-      <c r="C182" t="s">
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="183" spans="1:5">
-      <c r="A183" t="s">
+      <c r="C183" t="s">
         <v>333</v>
       </c>
-      <c r="C183" t="s">
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="184" spans="1:5">
-      <c r="A184" t="s">
+      <c r="C184" t="s">
         <v>335</v>
       </c>
-      <c r="C184" t="s">
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="A185" t="s">
+      <c r="C185" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C185" s="3" t="s">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="186" spans="1:5">
-      <c r="A186" t="s">
+      <c r="C186" t="s">
         <v>339</v>
       </c>
-      <c r="C186" t="s">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="A187" t="s">
+      <c r="C187" t="s">
         <v>341</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>342</v>
       </c>
-      <c r="D187" t="s">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="188" spans="1:5">
-      <c r="A188" t="s">
+      <c r="C188" t="s">
         <v>344</v>
       </c>
-      <c r="C188" t="s">
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
         <v>345</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
-      <c r="A189" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>346</v>
+      </c>
+      <c r="C190" t="s">
         <v>347</v>
       </c>
-      <c r="C190" t="s">
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="A191" t="s">
+      <c r="C191" t="s">
         <v>349</v>
       </c>
-      <c r="C191" t="s">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="192" spans="1:5">
-      <c r="A192" t="s">
+      <c r="C192" t="s">
         <v>351</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
         <v>352</v>
       </c>
-      <c r="D192" t="s">
+      <c r="E192" t="s">
         <v>353</v>
       </c>
-      <c r="E192" t="s">
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" t="s">
+      <c r="C193" t="s">
         <v>355</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
         <v>356</v>
       </c>
-      <c r="D193" t="s">
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
         <v>357</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>358</v>
+      </c>
+      <c r="C195" t="s">
         <v>359</v>
       </c>
-      <c r="C195" t="s">
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="A196" t="s">
+      <c r="C196" t="s">
         <v>361</v>
       </c>
-      <c r="C196" t="s">
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197" t="s">
+      <c r="C197" t="s">
         <v>363</v>
       </c>
-      <c r="C197" t="s">
+      <c r="D197" t="s">
         <v>364</v>
       </c>
-      <c r="D197" t="s">
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="A198" t="s">
+      <c r="C198" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="C198" s="3" t="s">
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199" t="s">
+      <c r="C199" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="C199" s="3" t="s">
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="A200" t="s">
+      <c r="C200" t="s">
         <v>370</v>
       </c>
-      <c r="C200" t="s">
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201" t="s">
+      <c r="C201" t="s">
         <v>372</v>
       </c>
-      <c r="C201" t="s">
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="A202" t="s">
+      <c r="C202" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C202" s="3" t="s">
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="A203" t="s">
+      <c r="C203" t="s">
         <v>376</v>
       </c>
-      <c r="C203" t="s">
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="A204" t="s">
+      <c r="C204" t="s">
         <v>378</v>
       </c>
-      <c r="C204" t="s">
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="A205" t="s">
+      <c r="C205" t="s">
         <v>380</v>
       </c>
-      <c r="C205" t="s">
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="A206" t="s">
+      <c r="C206" t="s">
         <v>382</v>
       </c>
-      <c r="C206" t="s">
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
         <v>383</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>386</v>
+      </c>
+      <c r="C210" t="s">
         <v>387</v>
       </c>
-      <c r="C210" t="s">
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" t="s">
+      <c r="C211" t="s">
         <v>389</v>
       </c>
-      <c r="C211" t="s">
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" t="s">
+      <c r="C212" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C212" s="3" t="s">
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
         <v>392</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>393</v>
+      </c>
+      <c r="C214" t="s">
         <v>394</v>
       </c>
-      <c r="C214" t="s">
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" t="s">
+      <c r="C215" t="s">
         <v>396</v>
       </c>
-      <c r="C215" t="s">
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
         <v>397</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
+        <v>398</v>
+      </c>
+      <c r="C217" t="s">
         <v>399</v>
       </c>
-      <c r="C217" t="s">
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
         <v>400</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B219" s="5"/>
       <c r="C219" s="5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" t="s">
+      <c r="C220" t="s">
         <v>404</v>
       </c>
-      <c r="C220" t="s">
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" t="s">
+      <c r="C221" t="s">
         <v>406</v>
       </c>
-      <c r="C221" t="s">
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="1" t="s">
+      <c r="B222" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C222" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B222" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C222" s="1" t="s">
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" t="s">
+      <c r="C223" t="s">
         <v>410</v>
       </c>
-      <c r="C223" t="s">
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" t="s">
+      <c r="C224" t="s">
         <v>412</v>
       </c>
-      <c r="C224" t="s">
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="225" spans="1:5">
-      <c r="A225" t="s">
+      <c r="C225" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="C225" s="3" t="s">
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="226" spans="1:5">
-      <c r="A226" t="s">
+      <c r="C226" t="s">
         <v>416</v>
       </c>
-      <c r="C226" t="s">
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="227" spans="1:5">
-      <c r="A227" t="s">
+      <c r="C227" t="s">
         <v>418</v>
       </c>
-      <c r="C227" t="s">
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
-      <c r="A228" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>420</v>
+      </c>
+      <c r="C229" t="s">
         <v>421</v>
       </c>
-      <c r="C229" t="s">
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
         <v>422</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
-      <c r="A230" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>424</v>
+      </c>
+      <c r="C232" t="s">
         <v>425</v>
       </c>
-      <c r="C232" t="s">
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="233" spans="1:5">
-      <c r="A233" t="s">
+      <c r="C233" t="s">
         <v>427</v>
       </c>
-      <c r="C233" t="s">
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="234" spans="1:5">
-      <c r="A234" t="s">
+      <c r="C234" t="s">
         <v>429</v>
       </c>
-      <c r="C234" t="s">
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="235" spans="1:5">
-      <c r="A235" t="s">
+      <c r="C235" t="s">
         <v>431</v>
       </c>
-      <c r="C235" t="s">
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="236" spans="1:5">
-      <c r="A236" t="s">
+      <c r="C236" t="s">
         <v>433</v>
       </c>
-      <c r="C236" t="s">
+      <c r="D236" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="D236" s="2" t="s">
+      <c r="E236" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E236" s="2" t="s">
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
         <v>436</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="A237" s="1" t="s">
-        <v>437</v>
       </c>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="2"/>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
+        <v>438</v>
+      </c>
+      <c r="C239" t="s">
         <v>439</v>
-      </c>
-      <c r="C239" t="s">
-        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/TEMP-ITG_AllOrganizations.xlsx
+++ b/TEMP-ITG_AllOrganizations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyle\Documents\Kyle\SPF-Syntax-Checker\SPF-Syntax-Checker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FreeW\Documents\Commercial Projects\SPF Syntax Checker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C2F1E1-F871-40EA-A50B-934A3E08FC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABF2DB5-7F07-4D5D-8A70-3A32805B5D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMP-ITG_AllOrganizations" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="437">
   <si>
     <t>name</t>
   </si>
@@ -97,9 +97,6 @@
     <t>Acuitas Crede</t>
   </si>
   <si>
-    <t>https://terrenpeizer.com/</t>
-  </si>
-  <si>
     <t>Acuitasgh</t>
   </si>
   <si>
@@ -187,9 +184,6 @@
     <t>AMP</t>
   </si>
   <si>
-    <t>57 Domains</t>
-  </si>
-  <si>
     <t>Andy Priest</t>
   </si>
   <si>
@@ -223,9 +217,6 @@
     <t>ARH Law of Texas</t>
   </si>
   <si>
-    <t>https://www.alexhernandezlaw.com/</t>
-  </si>
-  <si>
     <t>AssemblyGroup</t>
   </si>
   <si>
@@ -316,9 +307,6 @@
     <t>Benchmark Development</t>
   </si>
   <si>
-    <t>https://www.benchmarkdevelopment.com/</t>
-  </si>
-  <si>
     <t>Betty Lash</t>
   </si>
   <si>
@@ -352,15 +340,9 @@
     <t>Brazos Capital</t>
   </si>
   <si>
-    <t>https://brazoscapitalgroup.com/</t>
-  </si>
-  <si>
     <t>Brian A Bailey Homes Inc</t>
   </si>
   <si>
-    <t>http://www.baileybuiltcustomhomes.com/</t>
-  </si>
-  <si>
     <t>Bridge Leasing Group</t>
   </si>
   <si>
@@ -373,9 +355,6 @@
     <t>Buck Shapiro</t>
   </si>
   <si>
-    <t>https://shapirodunn.com/</t>
-  </si>
-  <si>
     <t>Building Image Group</t>
   </si>
   <si>
@@ -439,15 +418,9 @@
     <t>Cielo Property Group</t>
   </si>
   <si>
-    <t>http://cielopropertygroup.com/</t>
-  </si>
-  <si>
     <t>Classic Constructors</t>
   </si>
   <si>
-    <t>http://classicconstructors.com/</t>
-  </si>
-  <si>
     <t>Clayton Christopher</t>
   </si>
   <si>
@@ -478,9 +451,6 @@
     <t>Conquest Demo</t>
   </si>
   <si>
-    <t>http://www.conquestdemo.com/</t>
-  </si>
-  <si>
     <t>Cordova Real Estate Ventures</t>
   </si>
   <si>
@@ -496,9 +466,6 @@
     <t>CredeCG</t>
   </si>
   <si>
-    <t>http://credecg.com/</t>
-  </si>
-  <si>
     <t>Dakland Solutions</t>
   </si>
   <si>
@@ -535,9 +502,6 @@
     <t>Discovery Resources</t>
   </si>
   <si>
-    <t>https://www.discoveryresource.com/</t>
-  </si>
-  <si>
     <t>Dr Deb Dunn MD</t>
   </si>
   <si>
@@ -556,9 +520,6 @@
     <t>Emergent Acadamy</t>
   </si>
   <si>
-    <t>https://www.emergentlearningacademy.com/</t>
-  </si>
-  <si>
     <t>Eric Moreland</t>
   </si>
   <si>
@@ -574,9 +535,6 @@
     <t>Fogelman and Von Flatern</t>
   </si>
   <si>
-    <t>https://www.fvflawfirm.com/</t>
-  </si>
-  <si>
     <t>Forge Energy</t>
   </si>
   <si>
@@ -607,9 +565,6 @@
     <t>Galveston Urban Ministries</t>
   </si>
   <si>
-    <t>https://www.galvestonurbanministries.org/</t>
-  </si>
-  <si>
     <t>GCH Builders</t>
   </si>
   <si>
@@ -640,9 +595,6 @@
     <t>Greenlake Energy Ventures</t>
   </si>
   <si>
-    <t>https://www.greenlakeenergy.com/</t>
-  </si>
-  <si>
     <t>GWR</t>
   </si>
   <si>
@@ -667,15 +619,9 @@
     <t>Hosp Valet</t>
   </si>
   <si>
-    <t>https://www.hospitalityparking.com/</t>
-  </si>
-  <si>
     <t>Howler Brothers</t>
   </si>
   <si>
-    <t>https://howlerbros.com/</t>
-  </si>
-  <si>
     <t>Hyridge Energy</t>
   </si>
   <si>
@@ -697,15 +643,9 @@
     <t>Ivar's River Pub</t>
   </si>
   <si>
-    <t>https://www.riverpubtx.com/</t>
-  </si>
-  <si>
     <t>J Pinnelli Company LLC</t>
   </si>
   <si>
-    <t>http://www.pinnelli.com/</t>
-  </si>
-  <si>
     <t>James Cashiola</t>
   </si>
   <si>
@@ -721,9 +661,6 @@
     <t>Jet Rock Energy LLC</t>
   </si>
   <si>
-    <t>https://jetrockllc.com/</t>
-  </si>
-  <si>
     <t>Jimmy Nassour Law</t>
   </si>
   <si>
@@ -751,9 +688,6 @@
     <t>Keel&amp;Nassour</t>
   </si>
   <si>
-    <t>https://defendtexans.com/</t>
-  </si>
-  <si>
     <t>Kelly RN</t>
   </si>
   <si>
@@ -766,9 +700,6 @@
     <t>Kirby Walls Custom Builders</t>
   </si>
   <si>
-    <t>https://kirbywalls.com/</t>
-  </si>
-  <si>
     <t>Knight Real Estate</t>
   </si>
   <si>
@@ -787,9 +718,6 @@
     <t>Kyle Bunting</t>
   </si>
   <si>
-    <t>https://kylebunting.com/</t>
-  </si>
-  <si>
     <t>La Corsha</t>
   </si>
   <si>
@@ -805,9 +733,6 @@
     <t>Lampasas Abstract</t>
   </si>
   <si>
-    <t>https://www.lampasasabstract.com/</t>
-  </si>
-  <si>
     <t>Landwest Design Group</t>
   </si>
   <si>
@@ -823,9 +748,6 @@
     <t>Lone Star Podietry</t>
   </si>
   <si>
-    <t>http://www.lonestarpodiatry.com/</t>
-  </si>
-  <si>
     <t>Lori Elam</t>
   </si>
   <si>
@@ -844,9 +766,6 @@
     <t>Mercury Permits</t>
   </si>
   <si>
-    <t>https://mercurypermits.com/</t>
-  </si>
-  <si>
     <t>Mesquite Commercial</t>
   </si>
   <si>
@@ -892,9 +811,6 @@
     <t>Can't See Company</t>
   </si>
   <si>
-    <t>https://www.moontower.com/</t>
-  </si>
-  <si>
     <t>Moontower Resources</t>
   </si>
   <si>
@@ -904,9 +820,6 @@
     <t>Moore and Associates</t>
   </si>
   <si>
-    <t>https://www.mooreassociates.com/</t>
-  </si>
-  <si>
     <t>Moreland Properties</t>
   </si>
   <si>
@@ -979,9 +892,6 @@
     <t>Petro-Hunt LLC</t>
   </si>
   <si>
-    <t>https://www.petrohunt.com/</t>
-  </si>
-  <si>
     <t>PetroLegacy Energy</t>
   </si>
   <si>
@@ -1015,9 +925,6 @@
     <t>Is this the right website?</t>
   </si>
   <si>
-    <t>https://www.resourceproduction.com/about-us</t>
-  </si>
-  <si>
     <t>Retina Group of Texas, PLLC</t>
   </si>
   <si>
@@ -1045,9 +952,6 @@
     <t>RMD&amp;Co</t>
   </si>
   <si>
-    <t>https://rmdtx.com/</t>
-  </si>
-  <si>
     <t>Robert Whitfield</t>
   </si>
   <si>
@@ -1132,15 +1036,9 @@
     <t>Second Bar + Kitchen</t>
   </si>
   <si>
-    <t>https://www.secondbarkitchen.com/</t>
-  </si>
-  <si>
     <t>Sereno Homes</t>
   </si>
   <si>
-    <t>https://www.serenohomes.com/</t>
-  </si>
-  <si>
     <t>Shoberg Homes</t>
   </si>
   <si>
@@ -1156,9 +1054,6 @@
     <t>Spring HOA</t>
   </si>
   <si>
-    <t>https://www.springaustin.com/</t>
-  </si>
-  <si>
     <t>Stouse Design</t>
   </si>
   <si>
@@ -1207,9 +1102,6 @@
     <t>The Auto Ad Agency</t>
   </si>
   <si>
-    <t>https://theautoadagency.com/</t>
-  </si>
-  <si>
     <t>The USU</t>
   </si>
   <si>
@@ -1240,9 +1132,6 @@
     <t>TXCCDN</t>
   </si>
   <si>
-    <t>https://txccdn.net/</t>
-  </si>
-  <si>
     <t>Tyndall Austin Sales Center</t>
   </si>
   <si>
@@ -1258,9 +1147,6 @@
     <t>Victory Rocks</t>
   </si>
   <si>
-    <t>https://victoryrockusa.com/</t>
-  </si>
-  <si>
     <t>Vista Solutions Group</t>
   </si>
   <si>
@@ -1276,9 +1162,6 @@
     <t>VOXAV</t>
   </si>
   <si>
-    <t>https://www.voxav.com/</t>
-  </si>
-  <si>
     <t>Walker Elite</t>
   </si>
   <si>
@@ -1352,6 +1235,114 @@
   </si>
   <si>
     <t>zachtheatre.org</t>
+  </si>
+  <si>
+    <t>terrenpeizer.com</t>
+  </si>
+  <si>
+    <t>alexhernandezlaw.com</t>
+  </si>
+  <si>
+    <t>benchmarkdevelopment.com</t>
+  </si>
+  <si>
+    <t>brazoscapitalgroup.com</t>
+  </si>
+  <si>
+    <t>shapirodunn.com</t>
+  </si>
+  <si>
+    <t>discoveryresource.com</t>
+  </si>
+  <si>
+    <t>emergentlearningacademy.com</t>
+  </si>
+  <si>
+    <t>fvflawfirm.com</t>
+  </si>
+  <si>
+    <t>hospitalityparking.com</t>
+  </si>
+  <si>
+    <t>howlerbros.com</t>
+  </si>
+  <si>
+    <t>riverpubtx.com</t>
+  </si>
+  <si>
+    <t>jetrockllc.com</t>
+  </si>
+  <si>
+    <t>kirbywalls.com</t>
+  </si>
+  <si>
+    <t>kylebunting.com</t>
+  </si>
+  <si>
+    <t>lampasasabstract.com</t>
+  </si>
+  <si>
+    <t>mercurypermits.com</t>
+  </si>
+  <si>
+    <t>moontower.com</t>
+  </si>
+  <si>
+    <t>mooreassociates.com</t>
+  </si>
+  <si>
+    <t>petrohunt.com</t>
+  </si>
+  <si>
+    <t>resourceproduction.comabout-us</t>
+  </si>
+  <si>
+    <t>rmdtx.com</t>
+  </si>
+  <si>
+    <t>secondbarkitchen.com</t>
+  </si>
+  <si>
+    <t>serenohomes.com</t>
+  </si>
+  <si>
+    <t>springaustin.com</t>
+  </si>
+  <si>
+    <t>theautoadagency.com</t>
+  </si>
+  <si>
+    <t>victoryrockusa.com</t>
+  </si>
+  <si>
+    <t>voxav.com</t>
+  </si>
+  <si>
+    <t>baileybuiltcustomhomes.com</t>
+  </si>
+  <si>
+    <t>cielopropertygroup.com</t>
+  </si>
+  <si>
+    <t>classicconstructors.com</t>
+  </si>
+  <si>
+    <t>conquestdemo.com</t>
+  </si>
+  <si>
+    <t>credecg.com</t>
+  </si>
+  <si>
+    <t>pinnelli.com</t>
+  </si>
+  <si>
+    <t>lonestarpodiatry.com</t>
+  </si>
+  <si>
+    <t>txccdn.net</t>
+  </si>
+  <si>
+    <t>galvestonurbanministries.org</t>
   </si>
 </sst>
 </file>
@@ -2205,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2304,1872 +2295,1869 @@
         <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
         <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
         <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
         <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
         <v>41</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>42</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>43</v>
-      </c>
-      <c r="E21" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
         <v>45</v>
-      </c>
-      <c r="C22" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
         <v>47</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>48</v>
-      </c>
-      <c r="D23" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
         <v>53</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>54</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>55</v>
-      </c>
-      <c r="E26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>63</v>
+        <v>402</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" t="s">
         <v>84</v>
-      </c>
-      <c r="C41" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>94</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>106</v>
+        <v>404</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>108</v>
+        <v>428</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D54" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>113</v>
+        <v>405</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C57" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C61" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C63" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D63" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E63" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G63" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C64" s="1"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>135</v>
+        <v>429</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>137</v>
+        <v>430</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C69" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C70" s="1"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C72" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C73" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D73" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C74" t="s">
-        <v>148</v>
+        <v>431</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C75" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>154</v>
+        <v>432</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C79" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C80" s="1"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C81" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C82" s="1"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C83" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C84" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>167</v>
+        <v>406</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C88" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C89" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>174</v>
+        <v>407</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C91" s="1"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C93" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C94" t="s">
-        <v>180</v>
+        <v>408</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="C95" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C97" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="D97" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C98" s="1"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C99" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>191</v>
+        <v>436</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C103" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C104" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="C105" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="C109" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C110" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D110" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="E110" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>211</v>
+        <v>409</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>213</v>
+        <v>410</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="C115" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="C116" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="C117" t="s">
-        <v>221</v>
+        <v>411</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>223</v>
+        <v>433</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>229</v>
+        <v>412</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C124" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="D124" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C128" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="C131" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>244</v>
+        <v>413</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="C133" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="C134" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>251</v>
+        <v>414</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="C137" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="C138" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>257</v>
+        <v>415</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="C140" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C141" s="1"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>263</v>
+        <v>434</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="C147" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>270</v>
+        <v>416</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="C149" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="C151" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="C155" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="C157" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="B158" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>286</v>
+        <v>417</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="C159" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>290</v>
+        <v>418</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="C161" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C165" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="C166" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="C168" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="C169" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="C171" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="C172" s="1"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="C173" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="C174" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>315</v>
+        <v>419</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="C176" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="C177" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="C178" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="D178" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="C179" s="1"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>327</v>
+        <v>420</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="C181" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="C182" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="C183" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="C184" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>337</v>
+        <v>421</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="C186" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="C187" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="D187" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="C188" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="C190" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="C191" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="C192" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="D192" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="E192" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="C193" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="D193" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="C195" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="C196" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="C197" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="D197" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>366</v>
+        <v>422</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>368</v>
+        <v>423</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="C200" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="C201" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>374</v>
+        <v>424</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="C203" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="C204" t="s">
-        <v>378</v>
+        <v>343</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="C205" t="s">
-        <v>380</v>
+        <v>345</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="C206" t="s">
-        <v>382</v>
+        <v>347</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="C210" t="s">
-        <v>387</v>
+        <v>352</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>388</v>
+        <v>353</v>
       </c>
       <c r="C211" t="s">
-        <v>389</v>
+        <v>354</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>391</v>
+        <v>425</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>392</v>
+        <v>356</v>
       </c>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="C214" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
       <c r="C215" t="s">
-        <v>396</v>
+        <v>360</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>397</v>
+        <v>361</v>
       </c>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>398</v>
+        <v>362</v>
       </c>
       <c r="C217" t="s">
-        <v>399</v>
+        <v>363</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>401</v>
+        <v>365</v>
       </c>
       <c r="B219" s="5"/>
       <c r="C219" s="5" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>403</v>
+        <v>366</v>
       </c>
       <c r="C220" t="s">
-        <v>404</v>
+        <v>367</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>405</v>
+        <v>368</v>
       </c>
       <c r="C221" t="s">
-        <v>406</v>
+        <v>369</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>407</v>
+        <v>370</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="C223" t="s">
-        <v>410</v>
+        <v>372</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="C224" t="s">
-        <v>412</v>
+        <v>374</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>413</v>
+        <v>375</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
       <c r="C226" t="s">
-        <v>416</v>
+        <v>377</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="C227" t="s">
-        <v>418</v>
+        <v>379</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>419</v>
+        <v>380</v>
       </c>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>420</v>
+        <v>381</v>
       </c>
       <c r="C229" t="s">
-        <v>421</v>
+        <v>382</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>424</v>
+        <v>385</v>
       </c>
       <c r="C232" t="s">
-        <v>425</v>
+        <v>386</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>426</v>
+        <v>387</v>
       </c>
       <c r="C233" t="s">
-        <v>427</v>
+        <v>388</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="C234" t="s">
-        <v>429</v>
+        <v>390</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>430</v>
+        <v>391</v>
       </c>
       <c r="C235" t="s">
-        <v>431</v>
+        <v>392</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="C236" t="s">
-        <v>433</v>
+        <v>394</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>434</v>
+        <v>395</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -4177,17 +4165,17 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>437</v>
+        <v>398</v>
       </c>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>438</v>
+        <v>399</v>
       </c>
       <c r="C239" t="s">
-        <v>439</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
